--- a/Security/WVD Security add-on.xlsx
+++ b/Security/WVD Security add-on.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/mmoioli_microsoft_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/mmoioli_microsoft_com/Documents/Documents/GitHub/WVD/Security/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{7FC8E7A7-3669-4295-98F3-0D71E3F207C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA866EF1-C216-4D8C-BA68-E574C1E997F4}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{7FC8E7A7-3669-4295-98F3-0D71E3F207C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4C53143E-8FD7-4000-8AC0-FEF00E7014F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{560A4C5C-52C8-495D-B700-3277E5787381}"/>
   </bookViews>
@@ -50,6 +50,7 @@
     <author>Marco Moioli</author>
     <author>tc={0CC8AEEF-F287-447B-847A-5AB25577375F}</author>
     <author>tc={C5563287-8D63-4532-AC79-7A795AC83D0B}</author>
+    <author>tc={978F4306-699E-4F82-8022-FE6644FB5DB8}</author>
     <author>tc={30ECFE40-3C0B-44E3-B2CC-DCF91A92D173}</author>
     <author>tc={F47FEADF-2776-4739-BB51-3A841469D50D}</author>
     <author>tc={00216701-3401-45B8-8726-63BBDFE4DD70}</author>
@@ -184,7 +185,15 @@
     Windows 10, Windows Server</t>
       </text>
     </comment>
-    <comment ref="A26" authorId="14" shapeId="0" xr:uid="{30ECFE40-3C0B-44E3-B2CC-DCF91A92D173}">
+    <comment ref="A24" authorId="14" shapeId="0" xr:uid="{978F4306-699E-4F82-8022-FE6644FB5DB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Premium SKU --&gt;  Web Content Filtering</t>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="15" shapeId="0" xr:uid="{30ECFE40-3C0B-44E3-B2CC-DCF91A92D173}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +201,7 @@
     Windows 10 only</t>
       </text>
     </comment>
-    <comment ref="A27" authorId="15" shapeId="0" xr:uid="{F47FEADF-2776-4739-BB51-3A841469D50D}">
+    <comment ref="A27" authorId="16" shapeId="0" xr:uid="{F47FEADF-2776-4739-BB51-3A841469D50D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +209,7 @@
     Windows Server Only, the automation part is consuming Azure Credit</t>
       </text>
     </comment>
-    <comment ref="A28" authorId="16" shapeId="0" xr:uid="{00216701-3401-45B8-8726-63BBDFE4DD70}">
+    <comment ref="A28" authorId="17" shapeId="0" xr:uid="{00216701-3401-45B8-8726-63BBDFE4DD70}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -908,6 +917,9 @@
   <threadedComment ref="A22" dT="2020-12-21T09:47:59.04" personId="{021B5F42-B497-4B1E-8897-5F2599258859}" id="{C5563287-8D63-4532-AC79-7A795AC83D0B}">
     <text>Windows 10, Windows Server</text>
   </threadedComment>
+  <threadedComment ref="A24" dT="2021-02-22T16:49:28.11" personId="{021B5F42-B497-4B1E-8897-5F2599258859}" id="{978F4306-699E-4F82-8022-FE6644FB5DB8}">
+    <text>Premium SKU --&gt;  Web Content Filtering</text>
+  </threadedComment>
   <threadedComment ref="A26" dT="2020-12-21T09:48:56.20" personId="{021B5F42-B497-4B1E-8897-5F2599258859}" id="{30ECFE40-3C0B-44E3-B2CC-DCF91A92D173}">
     <text>Windows 10 only</text>
   </threadedComment>
@@ -925,7 +937,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,4 +2112,10 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>